--- a/FuentesExcel.xlsx
+++ b/FuentesExcel.xlsx
@@ -12,31 +12,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Fuente excel</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Franklin Gothic Book"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <i val="true"/>
-      <color indexed="17"/>
-      <u val="double"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,9 +49,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -75,16 +61,14 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s" s="1">
-        <v>0</v>
-      </c>
+      <c r="B2" s="0"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F6"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>